--- a/python3/projects/ChemInformatics/molecule.xlsx
+++ b/python3/projects/ChemInformatics/molecule.xlsx
@@ -65,8 +65,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -86,7 +86,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="28575000" cy="5715000"/>
+          <a:ext cx="57150000" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -103,8 +103,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -124,7 +124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="381000"/>
-          <a:ext cx="28575000" cy="5715000"/>
+          <a:ext cx="57150000" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
